--- a/8-courses/2023-2024-HK3-TTDN/14-VuNT-TTDN-2023-2024-HK3-20240612.xlsx
+++ b/8-courses/2023-2024-HK3-TTDN/14-VuNT-TTDN-2023-2024-HK3-20240612.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
-    <sheet name="2-ThePT-TTDN-2023-2024-HK3-2024" sheetId="1" r:id="rId1"/>
+    <sheet name="14-VuNT-TTDN-2023-2024-HK3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="162">
   <si>
     <t>ỦY BAN NHÂN DÂN TP.HỒ CHÍ MINH</t>
   </si>
@@ -501,6 +501,9 @@
   </si>
   <si>
     <t>Nguyên</t>
+  </si>
+  <si>
+    <t>Ngày ... tháng 06 năm 2024</t>
   </si>
   <si>
     <t>Ngày ... tháng ... năm ...</t>
@@ -522,7 +525,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,6 +557,11 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -1041,137 +1049,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1198,7 +1206,11 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1549,8 +1561,8 @@
   <sheetPr/>
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="13.8"/>
@@ -1719,7 +1731,7 @@
       </c>
     </row>
     <row r="6" spans="11:11">
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2560,14 +2572,14 @@
       <c r="D42" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E42" s="11"/>
+      <c r="E42" s="12"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="9" t="s">
@@ -2706,26 +2718,26 @@
         <v>158</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="10:12">
       <c r="J52" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="11:11">
-      <c r="K55" s="1" t="s">
-        <v>160</v>
+      <c r="K55" s="14" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/8-courses/2023-2024-HK3-TTDN/14-VuNT-TTDN-2023-2024-HK3-20240612.xlsx
+++ b/8-courses/2023-2024-HK3-TTDN/14-VuNT-TTDN-2023-2024-HK3-20240612.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="27948" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="14-VuNT-TTDN-2023-2024-HK3" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="166">
   <si>
     <t>ỦY BAN NHÂN DÂN TP.HỒ CHÍ MINH</t>
   </si>
@@ -501,6 +501,18 @@
   </si>
   <si>
     <t>Nguyên</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>19211TM2781</t>
+  </si>
+  <si>
+    <t>Đinh Trương</t>
+  </si>
+  <si>
+    <t>Độ</t>
   </si>
   <si>
     <t>Ngày ... tháng 06 năm 2024</t>
@@ -1179,7 +1191,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1208,9 +1220,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1559,10 +1568,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="13.8"/>
@@ -2713,31 +2722,53 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
     </row>
-    <row r="51" spans="10:12">
-      <c r="J51" s="2" t="s">
+    <row r="49" spans="1:12">
+      <c r="A49" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="B49" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="L51" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="C49" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
     </row>
     <row r="52" spans="10:12">
-      <c r="J52" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="11:11">
-      <c r="K55" s="14" t="s">
-        <v>161</v>
+      <c r="J52" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="10:12">
+      <c r="J53" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="11:11">
+      <c r="K56" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2758,8 +2789,8 @@
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="E11:J11"/>
-    <mergeCell ref="J51:L51"/>
     <mergeCell ref="J52:L52"/>
+    <mergeCell ref="J53:L53"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
